--- a/cbs1.0/20220908-海运部主单项目/其他画面.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/其他画面.xlsx
@@ -4,15 +4,59 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="需求10-27" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>1.OMS上传附件后，对应的分单需要增加栏位标识提示"客户有新增附件"，点击提示可以操作是否关闭提示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.托单列表和 主分单列表增加 操作人 筛选。 </t>
+  </si>
+  <si>
+    <t>再商量</t>
+  </si>
+  <si>
+    <t>3.HBL，MBL，需要增加 编辑功能，编辑时还需要同步更新主分单数据，作为 提单的数据源。</t>
+  </si>
+  <si>
+    <t>船期查询</t>
+  </si>
+  <si>
+    <t>加船名查询条件</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>打印提单</t>
+  </si>
+  <si>
+    <t>收发通加选择</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>6个提单栏位</t>
+  </si>
+  <si>
+    <t>旧</t>
+  </si>
+  <si>
+    <t>之前逻辑</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23,10 +67,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,34 +547,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,99 +583,105 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,6 +1251,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="33604200"/>
+          <a:ext cx="18288000" cy="9906000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="43719750"/>
+          <a:ext cx="18288000" cy="9906000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1487,14 +1625,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="J320:T322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H126" workbookViewId="0">
-      <selection activeCell="Y161" sqref="Y161"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H300" workbookViewId="0">
+      <selection activeCell="K323" sqref="K323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="320" spans="11:20">
+      <c r="K320" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L320" s="1"/>
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
+    </row>
+    <row r="321" spans="11:20">
+      <c r="K321" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
+    </row>
+    <row r="322" spans="10:11">
+      <c r="J322" t="s">
+        <v>2</v>
+      </c>
+      <c r="K322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1505,14 +1680,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A4:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20221027</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>20221027</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20221027</v>
+      </c>
+      <c r="B6"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>20221028</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
